--- a/src/test/DataFiles/ConvertedFile.xlsx
+++ b/src/test/DataFiles/ConvertedFile.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5082" uniqueCount="2119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7198" uniqueCount="2587">
   <si>
     <t>45.944206</t>
   </si>
@@ -6388,6 +6388,1410 @@
   </si>
   <si>
     <t>21.216333</t>
+  </si>
+  <si>
+    <t>24.807377</t>
+  </si>
+  <si>
+    <t>64.39498</t>
+  </si>
+  <si>
+    <t>97.19536</t>
+  </si>
+  <si>
+    <t>162.94754</t>
+  </si>
+  <si>
+    <t>213.59804</t>
+  </si>
+  <si>
+    <t>250.84518</t>
+  </si>
+  <si>
+    <t>317.528</t>
+  </si>
+  <si>
+    <t>272.88214</t>
+  </si>
+  <si>
+    <t>315.7041</t>
+  </si>
+  <si>
+    <t>354.59506</t>
+  </si>
+  <si>
+    <t>411.94986</t>
+  </si>
+  <si>
+    <t>320.08868</t>
+  </si>
+  <si>
+    <t>271.4254</t>
+  </si>
+  <si>
+    <t>306.0198</t>
+  </si>
+  <si>
+    <t>468.1345</t>
+  </si>
+  <si>
+    <t>296.1142</t>
+  </si>
+  <si>
+    <t>29.35961</t>
+  </si>
+  <si>
+    <t>93.46608</t>
+  </si>
+  <si>
+    <t>142.25172</t>
+  </si>
+  <si>
+    <t>241.70247</t>
+  </si>
+  <si>
+    <t>309.79346</t>
+  </si>
+  <si>
+    <t>353.64093</t>
+  </si>
+  <si>
+    <t>442.66068</t>
+  </si>
+  <si>
+    <t>369.57986</t>
+  </si>
+  <si>
+    <t>426.77795</t>
+  </si>
+  <si>
+    <t>473.54382</t>
+  </si>
+  <si>
+    <t>515.4143</t>
+  </si>
+  <si>
+    <t>373.26913</t>
+  </si>
+  <si>
+    <t>287.94724</t>
+  </si>
+  <si>
+    <t>356.16077</t>
+  </si>
+  <si>
+    <t>595.4426</t>
+  </si>
+  <si>
+    <t>353.4606</t>
+  </si>
+  <si>
+    <t>0.0024894667</t>
+  </si>
+  <si>
+    <t>0.013679686</t>
+  </si>
+  <si>
+    <t>0.032994706</t>
+  </si>
+  <si>
+    <t>0.06619434</t>
+  </si>
+  <si>
+    <t>0.113152266</t>
+  </si>
+  <si>
+    <t>0.16942927</t>
+  </si>
+  <si>
+    <t>0.2414955</t>
+  </si>
+  <si>
+    <t>0.32157442</t>
+  </si>
+  <si>
+    <t>0.38691637</t>
+  </si>
+  <si>
+    <t>0.46812972</t>
+  </si>
+  <si>
+    <t>0.56962204</t>
+  </si>
+  <si>
+    <t>0.6660001</t>
+  </si>
+  <si>
+    <t>0.7305029</t>
+  </si>
+  <si>
+    <t>0.80909747</t>
+  </si>
+  <si>
+    <t>0.9077968</t>
+  </si>
+  <si>
+    <t>0.9730077</t>
+  </si>
+  <si>
+    <t>0.0026148</t>
+  </si>
+  <si>
+    <t>0.018928673</t>
+  </si>
+  <si>
+    <t>0.046033334</t>
+  </si>
+  <si>
+    <t>0.09531855</t>
+  </si>
+  <si>
+    <t>0.16414505</t>
+  </si>
+  <si>
+    <t>0.24436907</t>
+  </si>
+  <si>
+    <t>0.34546408</t>
+  </si>
+  <si>
+    <t>0.4563232</t>
+  </si>
+  <si>
+    <t>0.5436892</t>
+  </si>
+  <si>
+    <t>0.6528582</t>
+  </si>
+  <si>
+    <t>0.7861994</t>
+  </si>
+  <si>
+    <t>0.90117925</t>
+  </si>
+  <si>
+    <t>0.9727611</t>
+  </si>
+  <si>
+    <t>1.0596923</t>
+  </si>
+  <si>
+    <t>1.1825267</t>
+  </si>
+  <si>
+    <t>1.2642858</t>
+  </si>
+  <si>
+    <t>21.471483</t>
+  </si>
+  <si>
+    <t>21.435099</t>
+  </si>
+  <si>
+    <t>21.692692</t>
+  </si>
+  <si>
+    <t>21.992958</t>
+  </si>
+  <si>
+    <t>22.130747</t>
+  </si>
+  <si>
+    <t>22.203854</t>
+  </si>
+  <si>
+    <t>21.706001</t>
+  </si>
+  <si>
+    <t>21.250227</t>
+  </si>
+  <si>
+    <t>20.974562</t>
+  </si>
+  <si>
+    <t>21.02338</t>
+  </si>
+  <si>
+    <t>20.930365</t>
+  </si>
+  <si>
+    <t>20.764013</t>
+  </si>
+  <si>
+    <t>20.753536</t>
+  </si>
+  <si>
+    <t>20.79414</t>
+  </si>
+  <si>
+    <t>21.12862</t>
+  </si>
+  <si>
+    <t>21.41382</t>
+  </si>
+  <si>
+    <t>21.390116</t>
+  </si>
+  <si>
+    <t>21.405478</t>
+  </si>
+  <si>
+    <t>21.440807</t>
+  </si>
+  <si>
+    <t>21.300375</t>
+  </si>
+  <si>
+    <t>21.180925</t>
+  </si>
+  <si>
+    <t>21.065899</t>
+  </si>
+  <si>
+    <t>20.843252</t>
+  </si>
+  <si>
+    <t>20.53176</t>
+  </si>
+  <si>
+    <t>20.264563</t>
+  </si>
+  <si>
+    <t>19.971579</t>
+  </si>
+  <si>
+    <t>19.644295</t>
+  </si>
+  <si>
+    <t>19.340765</t>
+  </si>
+  <si>
+    <t>19.058887</t>
+  </si>
+  <si>
+    <t>18.568167</t>
+  </si>
+  <si>
+    <t>18.268787</t>
+  </si>
+  <si>
+    <t>18.63929</t>
+  </si>
+  <si>
+    <t>19.385561</t>
+  </si>
+  <si>
+    <t>20.20533</t>
+  </si>
+  <si>
+    <t>21.18921</t>
+  </si>
+  <si>
+    <t>21.689035</t>
+  </si>
+  <si>
+    <t>22.239664</t>
+  </si>
+  <si>
+    <t>22.46069</t>
+  </si>
+  <si>
+    <t>22.527136</t>
+  </si>
+  <si>
+    <t>22.799067</t>
+  </si>
+  <si>
+    <t>23.248804</t>
+  </si>
+  <si>
+    <t>23.414515</t>
+  </si>
+  <si>
+    <t>23.389294</t>
+  </si>
+  <si>
+    <t>23.454931</t>
+  </si>
+  <si>
+    <t>23.855282</t>
+  </si>
+  <si>
+    <t>24.29326</t>
+  </si>
+  <si>
+    <t>19.534515</t>
+  </si>
+  <si>
+    <t>19.474007</t>
+  </si>
+  <si>
+    <t>19.290022</t>
+  </si>
+  <si>
+    <t>19.536705</t>
+  </si>
+  <si>
+    <t>19.995909</t>
+  </si>
+  <si>
+    <t>20.60616</t>
+  </si>
+  <si>
+    <t>20.967915</t>
+  </si>
+  <si>
+    <t>20.7439</t>
+  </si>
+  <si>
+    <t>20.76583</t>
+  </si>
+  <si>
+    <t>20.848963</t>
+  </si>
+  <si>
+    <t>20.95416</t>
+  </si>
+  <si>
+    <t>20.555502</t>
+  </si>
+  <si>
+    <t>20.444042</t>
+  </si>
+  <si>
+    <t>20.717276</t>
+  </si>
+  <si>
+    <t>21.8526</t>
+  </si>
+  <si>
+    <t>22.4885</t>
+  </si>
+  <si>
+    <t>22.512135</t>
+  </si>
+  <si>
+    <t>22.496777</t>
+  </si>
+  <si>
+    <t>22.192806</t>
+  </si>
+  <si>
+    <t>22.591898</t>
+  </si>
+  <si>
+    <t>22.735685</t>
+  </si>
+  <si>
+    <t>21.912785</t>
+  </si>
+  <si>
+    <t>21.467321</t>
+  </si>
+  <si>
+    <t>20.710886</t>
+  </si>
+  <si>
+    <t>20.09253</t>
+  </si>
+  <si>
+    <t>19.739954</t>
+  </si>
+  <si>
+    <t>18.972456</t>
+  </si>
+  <si>
+    <t>18.10249</t>
+  </si>
+  <si>
+    <t>17.765808</t>
+  </si>
+  <si>
+    <t>17.394499</t>
+  </si>
+  <si>
+    <t>18.753057</t>
+  </si>
+  <si>
+    <t>19.960135</t>
+  </si>
+  <si>
+    <t>21.483105</t>
+  </si>
+  <si>
+    <t>24.699152</t>
+  </si>
+  <si>
+    <t>27.797268</t>
+  </si>
+  <si>
+    <t>29.50748</t>
+  </si>
+  <si>
+    <t>31.940178</t>
+  </si>
+  <si>
+    <t>33.27207</t>
+  </si>
+  <si>
+    <t>31.992794</t>
+  </si>
+  <si>
+    <t>33.511147</t>
+  </si>
+  <si>
+    <t>35.95197</t>
+  </si>
+  <si>
+    <t>35.22186</t>
+  </si>
+  <si>
+    <t>31.971985</t>
+  </si>
+  <si>
+    <t>32.83948</t>
+  </si>
+  <si>
+    <t>36.555584</t>
+  </si>
+  <si>
+    <t>36.80709</t>
+  </si>
+  <si>
+    <t>0.54781806</t>
+  </si>
+  <si>
+    <t>0.053260088</t>
+  </si>
+  <si>
+    <t>0.62846893</t>
+  </si>
+  <si>
+    <t>1.0438976</t>
+  </si>
+  <si>
+    <t>1.5551946</t>
+  </si>
+  <si>
+    <t>1.4167182</t>
+  </si>
+  <si>
+    <t>0.7562933</t>
+  </si>
+  <si>
+    <t>0.72433716</t>
+  </si>
+  <si>
+    <t>0.36216858</t>
+  </si>
+  <si>
+    <t>1.5978026</t>
+  </si>
+  <si>
+    <t>1.6510626</t>
+  </si>
+  <si>
+    <t>1.2356339</t>
+  </si>
+  <si>
+    <t>0.7349892</t>
+  </si>
+  <si>
+    <t>0.45803675</t>
+  </si>
+  <si>
+    <t>1.3208503</t>
+  </si>
+  <si>
+    <t>1.6830188</t>
+  </si>
+  <si>
+    <t>1.7682348</t>
+  </si>
+  <si>
+    <t>2.492572</t>
+  </si>
+  <si>
+    <t>2.1197515</t>
+  </si>
+  <si>
+    <t>2.439312</t>
+  </si>
+  <si>
+    <t>1.6723667</t>
+  </si>
+  <si>
+    <t>1.6936707</t>
+  </si>
+  <si>
+    <t>1.3315022</t>
+  </si>
+  <si>
+    <t>1.8427987</t>
+  </si>
+  <si>
+    <t>1.2995459</t>
+  </si>
+  <si>
+    <t>0.2343444</t>
+  </si>
+  <si>
+    <t>0.23434435</t>
+  </si>
+  <si>
+    <t>0.4686888</t>
+  </si>
+  <si>
+    <t>0.18108432</t>
+  </si>
+  <si>
+    <t>0.7882493</t>
+  </si>
+  <si>
+    <t>1.0225936</t>
+  </si>
+  <si>
+    <t>1.7362787</t>
+  </si>
+  <si>
+    <t>2.023883</t>
+  </si>
+  <si>
+    <t>1.885407</t>
+  </si>
+  <si>
+    <t>1.9919274</t>
+  </si>
+  <si>
+    <t>2.4180076</t>
+  </si>
+  <si>
+    <t>2.5564842</t>
+  </si>
+  <si>
+    <t>2.42866</t>
+  </si>
+  <si>
+    <t>2.396704</t>
+  </si>
+  <si>
+    <t>2.5777879</t>
+  </si>
+  <si>
+    <t>2.1730115</t>
+  </si>
+  <si>
+    <t>1.853451</t>
+  </si>
+  <si>
+    <t>14.933333</t>
+  </si>
+  <si>
+    <t>75.86667</t>
+  </si>
+  <si>
+    <t>103.6</t>
+  </si>
+  <si>
+    <t>173.06667</t>
+  </si>
+  <si>
+    <t>250.53334</t>
+  </si>
+  <si>
+    <t>365.73334</t>
+  </si>
+  <si>
+    <t>491.53333</t>
+  </si>
+  <si>
+    <t>378.93332</t>
+  </si>
+  <si>
+    <t>492.33334</t>
+  </si>
+  <si>
+    <t>545.4</t>
+  </si>
+  <si>
+    <t>573.13336</t>
+  </si>
+  <si>
+    <t>412.4</t>
+  </si>
+  <si>
+    <t>355.13333</t>
+  </si>
+  <si>
+    <t>398.2</t>
+  </si>
+  <si>
+    <t>674.26666</t>
+  </si>
+  <si>
+    <t>511.4</t>
+  </si>
+  <si>
+    <t>16.933332</t>
+  </si>
+  <si>
+    <t>51.8</t>
+  </si>
+  <si>
+    <t>73.333336</t>
+  </si>
+  <si>
+    <t>122.46667</t>
+  </si>
+  <si>
+    <t>183.66667</t>
+  </si>
+  <si>
+    <t>265.93332</t>
+  </si>
+  <si>
+    <t>355.93332</t>
+  </si>
+  <si>
+    <t>268.13333</t>
+  </si>
+  <si>
+    <t>359.86667</t>
+  </si>
+  <si>
+    <t>400.33334</t>
+  </si>
+  <si>
+    <t>432.13333</t>
+  </si>
+  <si>
+    <t>288.53333</t>
+  </si>
+  <si>
+    <t>261.2</t>
+  </si>
+  <si>
+    <t>303.66666</t>
+  </si>
+  <si>
+    <t>479.73334</t>
+  </si>
+  <si>
+    <t>377.6</t>
+  </si>
+  <si>
+    <t>20.933332</t>
+  </si>
+  <si>
+    <t>63.466667</t>
+  </si>
+  <si>
+    <t>88.73333</t>
+  </si>
+  <si>
+    <t>147.53334</t>
+  </si>
+  <si>
+    <t>219.66667</t>
+  </si>
+  <si>
+    <t>331.0</t>
+  </si>
+  <si>
+    <t>421.6</t>
+  </si>
+  <si>
+    <t>439.86667</t>
+  </si>
+  <si>
+    <t>481.06668</t>
+  </si>
+  <si>
+    <t>503.46667</t>
+  </si>
+  <si>
+    <t>642.93335</t>
+  </si>
+  <si>
+    <t>416.93332</t>
+  </si>
+  <si>
+    <t>358.13333</t>
+  </si>
+  <si>
+    <t>449.6</t>
+  </si>
+  <si>
+    <t>567.93335</t>
+  </si>
+  <si>
+    <t>359.8</t>
+  </si>
+  <si>
+    <t>0.26666668</t>
+  </si>
+  <si>
+    <t>26.8</t>
+  </si>
+  <si>
+    <t>76.666664</t>
+  </si>
+  <si>
+    <t>107.933334</t>
+  </si>
+  <si>
+    <t>178.2</t>
+  </si>
+  <si>
+    <t>258.4</t>
+  </si>
+  <si>
+    <t>397.2</t>
+  </si>
+  <si>
+    <t>491.06668</t>
+  </si>
+  <si>
+    <t>506.6</t>
+  </si>
+  <si>
+    <t>505.06668</t>
+  </si>
+  <si>
+    <t>600.06665</t>
+  </si>
+  <si>
+    <t>737.26666</t>
+  </si>
+  <si>
+    <t>441.46667</t>
+  </si>
+  <si>
+    <t>388.06668</t>
+  </si>
+  <si>
+    <t>476.86667</t>
+  </si>
+  <si>
+    <t>621.06665</t>
+  </si>
+  <si>
+    <t>359.6</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>64.73333</t>
+  </si>
+  <si>
+    <t>90.4</t>
+  </si>
+  <si>
+    <t>153.33333</t>
+  </si>
+  <si>
+    <t>224.33333</t>
+  </si>
+  <si>
+    <t>322.33334</t>
+  </si>
+  <si>
+    <t>432.33334</t>
+  </si>
+  <si>
+    <t>327.93332</t>
+  </si>
+  <si>
+    <t>407.6</t>
+  </si>
+  <si>
+    <t>508.53333</t>
+  </si>
+  <si>
+    <t>544.6</t>
+  </si>
+  <si>
+    <t>356.13333</t>
+  </si>
+  <si>
+    <t>321.33334</t>
+  </si>
+  <si>
+    <t>369.66666</t>
+  </si>
+  <si>
+    <t>586.8</t>
+  </si>
+  <si>
+    <t>376.8</t>
+  </si>
+  <si>
+    <t>1.4666667</t>
+  </si>
+  <si>
+    <t>27.4</t>
+  </si>
+  <si>
+    <t>76.6</t>
+  </si>
+  <si>
+    <t>171.46666</t>
+  </si>
+  <si>
+    <t>251.8</t>
+  </si>
+  <si>
+    <t>372.13333</t>
+  </si>
+  <si>
+    <t>498.6</t>
+  </si>
+  <si>
+    <t>406.2</t>
+  </si>
+  <si>
+    <t>483.86667</t>
+  </si>
+  <si>
+    <t>580.4</t>
+  </si>
+  <si>
+    <t>596.93335</t>
+  </si>
+  <si>
+    <t>418.53333</t>
+  </si>
+  <si>
+    <t>379.73334</t>
+  </si>
+  <si>
+    <t>431.53333</t>
+  </si>
+  <si>
+    <t>641.0</t>
+  </si>
+  <si>
+    <t>419.0</t>
+  </si>
+  <si>
+    <t>21.2</t>
+  </si>
+  <si>
+    <t>57.8</t>
+  </si>
+  <si>
+    <t>82.066666</t>
+  </si>
+  <si>
+    <t>139.26666</t>
+  </si>
+  <si>
+    <t>209.6</t>
+  </si>
+  <si>
+    <t>299.53333</t>
+  </si>
+  <si>
+    <t>400.73334</t>
+  </si>
+  <si>
+    <t>318.33334</t>
+  </si>
+  <si>
+    <t>397.13333</t>
+  </si>
+  <si>
+    <t>455.46667</t>
+  </si>
+  <si>
+    <t>486.06668</t>
+  </si>
+  <si>
+    <t>340.13333</t>
+  </si>
+  <si>
+    <t>302.86667</t>
+  </si>
+  <si>
+    <t>329.26666</t>
+  </si>
+  <si>
+    <t>540.8</t>
+  </si>
+  <si>
+    <t>344.4</t>
+  </si>
+  <si>
+    <t>16.733334</t>
+  </si>
+  <si>
+    <t>55.2</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>125.6</t>
+  </si>
+  <si>
+    <t>193.53334</t>
+  </si>
+  <si>
+    <t>306.6</t>
+  </si>
+  <si>
+    <t>415.66666</t>
+  </si>
+  <si>
+    <t>314.73334</t>
+  </si>
+  <si>
+    <t>399.46667</t>
+  </si>
+  <si>
+    <t>478.93332</t>
+  </si>
+  <si>
+    <t>528.4</t>
+  </si>
+  <si>
+    <t>339.2</t>
+  </si>
+  <si>
+    <t>287.66666</t>
+  </si>
+  <si>
+    <t>349.6</t>
+  </si>
+  <si>
+    <t>580.2</t>
+  </si>
+  <si>
+    <t>381.6</t>
+  </si>
+  <si>
+    <t>18.733334</t>
+  </si>
+  <si>
+    <t>66.13333</t>
+  </si>
+  <si>
+    <t>91.2</t>
+  </si>
+  <si>
+    <t>149.73334</t>
+  </si>
+  <si>
+    <t>211.86667</t>
+  </si>
+  <si>
+    <t>333.53333</t>
+  </si>
+  <si>
+    <t>441.26666</t>
+  </si>
+  <si>
+    <t>349.4</t>
+  </si>
+  <si>
+    <t>412.26666</t>
+  </si>
+  <si>
+    <t>521.6</t>
+  </si>
+  <si>
+    <t>583.86664</t>
+  </si>
+  <si>
+    <t>357.13333</t>
+  </si>
+  <si>
+    <t>351.53333</t>
+  </si>
+  <si>
+    <t>396.66666</t>
+  </si>
+  <si>
+    <t>591.4</t>
+  </si>
+  <si>
+    <t>399.2</t>
+  </si>
+  <si>
+    <t>0.33333334</t>
+  </si>
+  <si>
+    <t>22.466667</t>
+  </si>
+  <si>
+    <t>77.066666</t>
+  </si>
+  <si>
+    <t>107.26667</t>
+  </si>
+  <si>
+    <t>177.06667</t>
+  </si>
+  <si>
+    <t>254.86667</t>
+  </si>
+  <si>
+    <t>379.26666</t>
+  </si>
+  <si>
+    <t>502.73334</t>
+  </si>
+  <si>
+    <t>413.66666</t>
+  </si>
+  <si>
+    <t>473.66666</t>
+  </si>
+  <si>
+    <t>590.86664</t>
+  </si>
+  <si>
+    <t>642.06665</t>
+  </si>
+  <si>
+    <t>415.6</t>
+  </si>
+  <si>
+    <t>407.06668</t>
+  </si>
+  <si>
+    <t>442.26666</t>
+  </si>
+  <si>
+    <t>644.86664</t>
+  </si>
+  <si>
+    <t>470.6</t>
+  </si>
+  <si>
+    <t>21.533333</t>
+  </si>
+  <si>
+    <t>71.666664</t>
+  </si>
+  <si>
+    <t>102.53333</t>
+  </si>
+  <si>
+    <t>174.6</t>
+  </si>
+  <si>
+    <t>254.53334</t>
+  </si>
+  <si>
+    <t>377.33334</t>
+  </si>
+  <si>
+    <t>513.06665</t>
+  </si>
+  <si>
+    <t>419.2</t>
+  </si>
+  <si>
+    <t>487.2</t>
+  </si>
+  <si>
+    <t>607.8</t>
+  </si>
+  <si>
+    <t>624.5333</t>
+  </si>
+  <si>
+    <t>417.2</t>
+  </si>
+  <si>
+    <t>385.86667</t>
+  </si>
+  <si>
+    <t>639.0</t>
+  </si>
+  <si>
+    <t>470.8</t>
+  </si>
+  <si>
+    <t>2.2666667</t>
+  </si>
+  <si>
+    <t>23.866667</t>
+  </si>
+  <si>
+    <t>65.2</t>
+  </si>
+  <si>
+    <t>93.8</t>
+  </si>
+  <si>
+    <t>153.66667</t>
+  </si>
+  <si>
+    <t>216.13333</t>
+  </si>
+  <si>
+    <t>334.4</t>
+  </si>
+  <si>
+    <t>454.73334</t>
+  </si>
+  <si>
+    <t>355.33334</t>
+  </si>
+  <si>
+    <t>430.06668</t>
+  </si>
+  <si>
+    <t>550.06665</t>
+  </si>
+  <si>
+    <t>603.06665</t>
+  </si>
+  <si>
+    <t>371.93332</t>
+  </si>
+  <si>
+    <t>362.33334</t>
+  </si>
+  <si>
+    <t>396.53333</t>
+  </si>
+  <si>
+    <t>608.8</t>
+  </si>
+  <si>
+    <t>383.8</t>
+  </si>
+  <si>
+    <t>16.866667</t>
+  </si>
+  <si>
+    <t>59.8</t>
+  </si>
+  <si>
+    <t>82.53333</t>
+  </si>
+  <si>
+    <t>138.6</t>
+  </si>
+  <si>
+    <t>202.06667</t>
+  </si>
+  <si>
+    <t>329.33334</t>
+  </si>
+  <si>
+    <t>440.53333</t>
+  </si>
+  <si>
+    <t>376.06668</t>
+  </si>
+  <si>
+    <t>393.33334</t>
+  </si>
+  <si>
+    <t>509.13333</t>
+  </si>
+  <si>
+    <t>595.13336</t>
+  </si>
+  <si>
+    <t>351.86667</t>
+  </si>
+  <si>
+    <t>344.13333</t>
+  </si>
+  <si>
+    <t>372.93332</t>
+  </si>
+  <si>
+    <t>563.4667</t>
+  </si>
+  <si>
+    <t>368.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>66.53333</t>
+  </si>
+  <si>
+    <t>94.73333</t>
+  </si>
+  <si>
+    <t>158.6</t>
+  </si>
+  <si>
+    <t>239.13333</t>
+  </si>
+  <si>
+    <t>354.53333</t>
+  </si>
+  <si>
+    <t>461.06668</t>
+  </si>
+  <si>
+    <t>422.4</t>
+  </si>
+  <si>
+    <t>439.33334</t>
+  </si>
+  <si>
+    <t>503.93332</t>
+  </si>
+  <si>
+    <t>598.4</t>
+  </si>
+  <si>
+    <t>391.6</t>
+  </si>
+  <si>
+    <t>340.26666</t>
+  </si>
+  <si>
+    <t>417.86667</t>
+  </si>
+  <si>
+    <t>521.26666</t>
+  </si>
+  <si>
+    <t>332.4</t>
+  </si>
+  <si>
+    <t>-1.4285715</t>
+  </si>
+  <si>
+    <t>-1.4</t>
+  </si>
+  <si>
+    <t>-1.3333334</t>
+  </si>
+  <si>
+    <t>-1.6</t>
+  </si>
+  <si>
+    <t>-1.2666667</t>
+  </si>
+  <si>
+    <t>-1.5333333</t>
+  </si>
+  <si>
+    <t>-1.4666667</t>
+  </si>
+  <si>
+    <t>-1.8666667</t>
+  </si>
+  <si>
+    <t>-1.6666666</t>
+  </si>
+  <si>
+    <t>-1.7333333</t>
+  </si>
+  <si>
+    <t>-1.0666667</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>4.9333334</t>
+  </si>
+  <si>
+    <t>20.866667</t>
+  </si>
+  <si>
+    <t>57.6</t>
+  </si>
+  <si>
+    <t>81.066666</t>
+  </si>
+  <si>
+    <t>135.06667</t>
+  </si>
+  <si>
+    <t>204.53334</t>
+  </si>
+  <si>
+    <t>305.93332</t>
+  </si>
+  <si>
+    <t>396.4</t>
+  </si>
+  <si>
+    <t>371.06668</t>
+  </si>
+  <si>
+    <t>380.8</t>
+  </si>
+  <si>
+    <t>458.86667</t>
+  </si>
+  <si>
+    <t>535.8</t>
+  </si>
+  <si>
+    <t>339.8</t>
+  </si>
+  <si>
+    <t>299.93332</t>
+  </si>
+  <si>
+    <t>367.86667</t>
+  </si>
+  <si>
+    <t>477.4</t>
+  </si>
+  <si>
+    <t>19.666666</t>
+  </si>
+  <si>
+    <t>66.333336</t>
+  </si>
+  <si>
+    <t>92.6</t>
+  </si>
+  <si>
+    <t>154.8</t>
+  </si>
+  <si>
+    <t>226.46666</t>
+  </si>
+  <si>
+    <t>337.26666</t>
+  </si>
+  <si>
+    <t>447.93332</t>
+  </si>
+  <si>
+    <t>395.6</t>
+  </si>
+  <si>
+    <t>403.46667</t>
+  </si>
+  <si>
+    <t>510.53333</t>
+  </si>
+  <si>
+    <t>623.06665</t>
+  </si>
+  <si>
+    <t>378.0</t>
+  </si>
+  <si>
+    <t>336.13333</t>
+  </si>
+  <si>
+    <t>380.66666</t>
+  </si>
+  <si>
+    <t>583.6</t>
+  </si>
+  <si>
+    <t>334.6</t>
   </si>
 </sst>
 </file>
@@ -6740,7 +8144,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BC7E3C-4A75-A64A-AF59-6A3AE42514FE}">
-  <dimension ref="C2:CC34"/>
+  <dimension ref="C2:CC47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6748,55 +8152,55 @@
   <sheetData>
     <row r="2">
       <c r="C2" t="s">
-        <v>1987</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>2020</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>2183</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>2229</v>
       </c>
       <c r="I2" t="s">
-        <v>132</v>
+        <v>2275</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="M2" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="N2" t="s">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="O2" t="s">
-        <v>281</v>
+        <v>167</v>
       </c>
       <c r="P2" t="s">
         <v>167</v>
       </c>
       <c r="Q2" t="s">
-        <v>329</v>
+        <v>167</v>
       </c>
       <c r="R2" t="s">
-        <v>362</v>
+        <v>167</v>
       </c>
       <c r="S2" t="s">
-        <v>395</v>
+        <v>167</v>
       </c>
       <c r="T2" t="s">
         <v>167</v>
@@ -6805,16 +8209,16 @@
         <v>167</v>
       </c>
       <c r="V2" t="s">
-        <v>468</v>
+        <v>167</v>
       </c>
       <c r="W2" t="s">
-        <v>501</v>
+        <v>167</v>
       </c>
       <c r="X2" t="s">
-        <v>534</v>
+        <v>2543</v>
       </c>
       <c r="Y2" t="s">
-        <v>567</v>
+        <v>167</v>
       </c>
       <c r="Z2" t="s">
         <v>600</v>
@@ -6987,73 +8391,73 @@
     </row>
     <row r="3">
       <c r="C3" t="s">
-        <v>1988</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>2021</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>2184</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>2230</v>
       </c>
       <c r="I3" t="s">
-        <v>133</v>
+        <v>2276</v>
       </c>
       <c r="J3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L3" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="M3" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="N3" t="s">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="O3" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="P3" t="s">
         <v>167</v>
       </c>
       <c r="Q3" t="s">
-        <v>330</v>
+        <v>167</v>
       </c>
       <c r="R3" t="s">
-        <v>363</v>
+        <v>167</v>
       </c>
       <c r="S3" t="s">
-        <v>396</v>
+        <v>167</v>
       </c>
       <c r="T3" t="s">
-        <v>428</v>
+        <v>167</v>
       </c>
       <c r="U3" t="s">
         <v>167</v>
       </c>
       <c r="V3" t="s">
-        <v>469</v>
+        <v>167</v>
       </c>
       <c r="W3" t="s">
-        <v>502</v>
+        <v>167</v>
       </c>
       <c r="X3" t="s">
-        <v>535</v>
+        <v>2544</v>
       </c>
       <c r="Y3" t="s">
-        <v>568</v>
+        <v>167</v>
       </c>
       <c r="Z3" t="s">
         <v>601</v>
@@ -7226,73 +8630,73 @@
     </row>
     <row r="4">
       <c r="C4" t="s">
-        <v>1989</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>2022</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>2185</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>2231</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>2277</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L4" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="M4" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="N4" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="O4" t="s">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="P4" t="s">
         <v>167</v>
       </c>
       <c r="Q4" t="s">
-        <v>331</v>
+        <v>167</v>
       </c>
       <c r="R4" t="s">
-        <v>364</v>
+        <v>167</v>
       </c>
       <c r="S4" t="s">
-        <v>397</v>
+        <v>167</v>
       </c>
       <c r="T4" t="s">
-        <v>429</v>
+        <v>167</v>
       </c>
       <c r="U4" t="s">
-        <v>437</v>
+        <v>167</v>
       </c>
       <c r="V4" t="s">
-        <v>470</v>
+        <v>167</v>
       </c>
       <c r="W4" t="s">
-        <v>503</v>
+        <v>167</v>
       </c>
       <c r="X4" t="s">
-        <v>536</v>
+        <v>2545</v>
       </c>
       <c r="Y4" t="s">
-        <v>569</v>
+        <v>167</v>
       </c>
       <c r="Z4" t="s">
         <v>602</v>
@@ -7465,73 +8869,73 @@
     </row>
     <row r="5">
       <c r="C5" t="s">
-        <v>1990</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>2023</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>2186</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>2232</v>
       </c>
       <c r="I5" t="s">
-        <v>135</v>
+        <v>2278</v>
       </c>
       <c r="J5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L5" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="M5" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="N5" t="s">
-        <v>252</v>
+        <v>167</v>
       </c>
       <c r="O5" t="s">
-        <v>284</v>
+        <v>167</v>
       </c>
       <c r="P5" t="s">
         <v>167</v>
       </c>
       <c r="Q5" t="s">
-        <v>332</v>
+        <v>167</v>
       </c>
       <c r="R5" t="s">
-        <v>365</v>
+        <v>167</v>
       </c>
       <c r="S5" t="s">
-        <v>398</v>
+        <v>167</v>
       </c>
       <c r="T5" t="s">
-        <v>430</v>
+        <v>167</v>
       </c>
       <c r="U5" t="s">
-        <v>438</v>
+        <v>167</v>
       </c>
       <c r="V5" t="s">
-        <v>471</v>
+        <v>167</v>
       </c>
       <c r="W5" t="s">
-        <v>504</v>
+        <v>167</v>
       </c>
       <c r="X5" t="s">
-        <v>537</v>
+        <v>2546</v>
       </c>
       <c r="Y5" t="s">
-        <v>570</v>
+        <v>167</v>
       </c>
       <c r="Z5" t="s">
         <v>603</v>
@@ -7704,73 +9108,73 @@
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>1991</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>2024</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>2187</v>
       </c>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>2233</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>2279</v>
       </c>
       <c r="J6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L6" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="M6" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="N6" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="O6" t="s">
-        <v>285</v>
+        <v>167</v>
       </c>
       <c r="P6" t="s">
         <v>167</v>
       </c>
       <c r="Q6" t="s">
-        <v>333</v>
+        <v>167</v>
       </c>
       <c r="R6" t="s">
-        <v>366</v>
+        <v>167</v>
       </c>
       <c r="S6" t="s">
-        <v>399</v>
+        <v>167</v>
       </c>
       <c r="T6" t="s">
-        <v>431</v>
+        <v>167</v>
       </c>
       <c r="U6" t="s">
-        <v>439</v>
+        <v>167</v>
       </c>
       <c r="V6" t="s">
-        <v>472</v>
+        <v>167</v>
       </c>
       <c r="W6" t="s">
-        <v>505</v>
+        <v>167</v>
       </c>
       <c r="X6" t="s">
-        <v>538</v>
+        <v>2547</v>
       </c>
       <c r="Y6" t="s">
-        <v>571</v>
+        <v>167</v>
       </c>
       <c r="Z6" t="s">
         <v>604</v>
@@ -7943,73 +9347,73 @@
     </row>
     <row r="7">
       <c r="C7" t="s">
-        <v>1992</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>2025</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>2188</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>2234</v>
       </c>
       <c r="I7" t="s">
-        <v>137</v>
+        <v>2280</v>
       </c>
       <c r="J7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L7" t="s">
-        <v>206</v>
+        <v>167</v>
       </c>
       <c r="M7" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="N7" t="s">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="O7" t="s">
-        <v>286</v>
+        <v>167</v>
       </c>
       <c r="P7" t="s">
-        <v>314</v>
+        <v>167</v>
       </c>
       <c r="Q7" t="s">
-        <v>334</v>
+        <v>167</v>
       </c>
       <c r="R7" t="s">
-        <v>367</v>
+        <v>167</v>
       </c>
       <c r="S7" t="s">
-        <v>400</v>
+        <v>167</v>
       </c>
       <c r="T7" t="s">
-        <v>432</v>
+        <v>167</v>
       </c>
       <c r="U7" t="s">
-        <v>440</v>
+        <v>167</v>
       </c>
       <c r="V7" t="s">
-        <v>473</v>
+        <v>167</v>
       </c>
       <c r="W7" t="s">
-        <v>506</v>
+        <v>167</v>
       </c>
       <c r="X7" t="s">
-        <v>539</v>
+        <v>2546</v>
       </c>
       <c r="Y7" t="s">
-        <v>572</v>
+        <v>167</v>
       </c>
       <c r="Z7" t="s">
         <v>605</v>
@@ -8182,73 +9586,73 @@
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>1993</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>2026</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>2189</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>2235</v>
       </c>
       <c r="I8" t="s">
-        <v>138</v>
+        <v>2281</v>
       </c>
       <c r="J8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L8" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="M8" t="s">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="N8" t="s">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="O8" t="s">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="P8" t="s">
-        <v>315</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="s">
-        <v>335</v>
+        <v>167</v>
       </c>
       <c r="R8" t="s">
-        <v>368</v>
+        <v>167</v>
       </c>
       <c r="S8" t="s">
-        <v>401</v>
+        <v>167</v>
       </c>
       <c r="T8" t="s">
-        <v>433</v>
+        <v>167</v>
       </c>
       <c r="U8" t="s">
-        <v>441</v>
+        <v>167</v>
       </c>
       <c r="V8" t="s">
-        <v>474</v>
+        <v>167</v>
       </c>
       <c r="W8" t="s">
-        <v>507</v>
+        <v>167</v>
       </c>
       <c r="X8" t="s">
-        <v>540</v>
+        <v>2545</v>
       </c>
       <c r="Y8" t="s">
-        <v>573</v>
+        <v>167</v>
       </c>
       <c r="Z8" t="s">
         <v>606</v>
@@ -8421,73 +9825,73 @@
     </row>
     <row r="9">
       <c r="C9" t="s">
-        <v>1994</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>2027</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>2190</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>2236</v>
       </c>
       <c r="I9" t="s">
-        <v>139</v>
+        <v>2282</v>
       </c>
       <c r="J9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K9" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="L9" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="M9" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="N9" t="s">
-        <v>256</v>
+        <v>167</v>
       </c>
       <c r="O9" t="s">
-        <v>288</v>
+        <v>167</v>
       </c>
       <c r="P9" t="s">
-        <v>316</v>
+        <v>167</v>
       </c>
       <c r="Q9" t="s">
-        <v>336</v>
+        <v>167</v>
       </c>
       <c r="R9" t="s">
-        <v>369</v>
+        <v>167</v>
       </c>
       <c r="S9" t="s">
-        <v>402</v>
+        <v>167</v>
       </c>
       <c r="T9" t="s">
-        <v>434</v>
+        <v>167</v>
       </c>
       <c r="U9" t="s">
-        <v>442</v>
+        <v>167</v>
       </c>
       <c r="V9" t="s">
-        <v>475</v>
+        <v>167</v>
       </c>
       <c r="W9" t="s">
-        <v>508</v>
+        <v>167</v>
       </c>
       <c r="X9" t="s">
-        <v>541</v>
+        <v>2548</v>
       </c>
       <c r="Y9" t="s">
-        <v>574</v>
+        <v>167</v>
       </c>
       <c r="Z9" t="s">
         <v>607</v>
@@ -8660,73 +10064,73 @@
     </row>
     <row r="10">
       <c r="C10" t="s">
-        <v>1995</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>2028</v>
+        <v>167</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>2191</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>2237</v>
       </c>
       <c r="I10" t="s">
-        <v>140</v>
+        <v>2283</v>
       </c>
       <c r="J10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K10" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="L10" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="M10" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="N10" t="s">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="O10" t="s">
-        <v>289</v>
+        <v>167</v>
       </c>
       <c r="P10" t="s">
-        <v>317</v>
+        <v>167</v>
       </c>
       <c r="Q10" t="s">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="R10" t="s">
-        <v>370</v>
+        <v>167</v>
       </c>
       <c r="S10" t="s">
-        <v>403</v>
+        <v>167</v>
       </c>
       <c r="T10" t="s">
-        <v>435</v>
+        <v>167</v>
       </c>
       <c r="U10" t="s">
-        <v>443</v>
+        <v>167</v>
       </c>
       <c r="V10" t="s">
-        <v>476</v>
+        <v>167</v>
       </c>
       <c r="W10" t="s">
-        <v>509</v>
+        <v>167</v>
       </c>
       <c r="X10" t="s">
-        <v>542</v>
+        <v>2548</v>
       </c>
       <c r="Y10" t="s">
-        <v>575</v>
+        <v>167</v>
       </c>
       <c r="Z10" t="s">
         <v>608</v>
@@ -8899,73 +10303,73 @@
     </row>
     <row r="11">
       <c r="C11" t="s">
-        <v>1996</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>2029</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>2192</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>2238</v>
       </c>
       <c r="I11" t="s">
-        <v>141</v>
+        <v>2284</v>
       </c>
       <c r="J11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K11" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="L11" t="s">
         <v>167</v>
       </c>
       <c r="M11" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="N11" t="s">
         <v>167</v>
       </c>
       <c r="O11" t="s">
-        <v>290</v>
+        <v>167</v>
       </c>
       <c r="P11" t="s">
-        <v>318</v>
+        <v>167</v>
       </c>
       <c r="Q11" t="s">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="R11" t="s">
-        <v>371</v>
+        <v>167</v>
       </c>
       <c r="S11" t="s">
-        <v>404</v>
+        <v>167</v>
       </c>
       <c r="T11" t="s">
         <v>167</v>
       </c>
       <c r="U11" t="s">
-        <v>444</v>
+        <v>167</v>
       </c>
       <c r="V11" t="s">
-        <v>477</v>
+        <v>167</v>
       </c>
       <c r="W11" t="s">
-        <v>510</v>
+        <v>167</v>
       </c>
       <c r="X11" t="s">
-        <v>543</v>
+        <v>2545</v>
       </c>
       <c r="Y11" t="s">
-        <v>576</v>
+        <v>167</v>
       </c>
       <c r="Z11" t="s">
         <v>609</v>
@@ -9138,73 +10542,73 @@
     </row>
     <row r="12">
       <c r="C12" t="s">
-        <v>1997</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>2030</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>2193</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>2239</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>2285</v>
       </c>
       <c r="J12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K12" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="L12" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="M12" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="N12" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="O12" t="s">
-        <v>291</v>
+        <v>167</v>
       </c>
       <c r="P12" t="s">
-        <v>319</v>
+        <v>167</v>
       </c>
       <c r="Q12" t="s">
-        <v>339</v>
+        <v>167</v>
       </c>
       <c r="R12" t="s">
-        <v>372</v>
+        <v>167</v>
       </c>
       <c r="S12" t="s">
-        <v>405</v>
+        <v>167</v>
       </c>
       <c r="T12" t="s">
         <v>167</v>
       </c>
       <c r="U12" t="s">
-        <v>445</v>
+        <v>167</v>
       </c>
       <c r="V12" t="s">
-        <v>478</v>
+        <v>167</v>
       </c>
       <c r="W12" t="s">
-        <v>511</v>
+        <v>167</v>
       </c>
       <c r="X12" t="s">
-        <v>544</v>
+        <v>2546</v>
       </c>
       <c r="Y12" t="s">
-        <v>577</v>
+        <v>167</v>
       </c>
       <c r="Z12" t="s">
         <v>610</v>
@@ -9377,73 +10781,73 @@
     </row>
     <row r="13">
       <c r="C13" t="s">
-        <v>1998</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>2031</v>
+        <v>167</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>2194</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>2240</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>2286</v>
       </c>
       <c r="J13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K13" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="O13" t="s">
-        <v>292</v>
+        <v>167</v>
       </c>
       <c r="P13" t="s">
-        <v>320</v>
+        <v>167</v>
       </c>
       <c r="Q13" t="s">
-        <v>340</v>
+        <v>167</v>
       </c>
       <c r="R13" t="s">
-        <v>373</v>
+        <v>167</v>
       </c>
       <c r="S13" t="s">
-        <v>406</v>
+        <v>167</v>
       </c>
       <c r="T13" t="s">
-        <v>436</v>
+        <v>167</v>
       </c>
       <c r="U13" t="s">
-        <v>446</v>
+        <v>167</v>
       </c>
       <c r="V13" t="s">
-        <v>479</v>
+        <v>167</v>
       </c>
       <c r="W13" t="s">
-        <v>512</v>
+        <v>167</v>
       </c>
       <c r="X13" t="s">
-        <v>545</v>
+        <v>2548</v>
       </c>
       <c r="Y13" t="s">
-        <v>578</v>
+        <v>167</v>
       </c>
       <c r="Z13" t="s">
         <v>611</v>
@@ -9616,73 +11020,73 @@
     </row>
     <row r="14">
       <c r="C14" t="s">
-        <v>1999</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>2032</v>
+        <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>2195</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>2241</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>2287</v>
       </c>
       <c r="J14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="O14" t="s">
-        <v>293</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s">
-        <v>321</v>
+        <v>167</v>
       </c>
       <c r="Q14" t="s">
-        <v>341</v>
+        <v>167</v>
       </c>
       <c r="R14" t="s">
-        <v>374</v>
+        <v>167</v>
       </c>
       <c r="S14" t="s">
-        <v>407</v>
+        <v>167</v>
       </c>
       <c r="T14" t="s">
         <v>167</v>
       </c>
       <c r="U14" t="s">
-        <v>447</v>
+        <v>167</v>
       </c>
       <c r="V14" t="s">
-        <v>480</v>
+        <v>167</v>
       </c>
       <c r="W14" t="s">
-        <v>513</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s">
-        <v>546</v>
+        <v>2549</v>
       </c>
       <c r="Y14" t="s">
-        <v>579</v>
+        <v>167</v>
       </c>
       <c r="Z14" t="s">
         <v>612</v>
@@ -9855,73 +11259,73 @@
     </row>
     <row r="15">
       <c r="C15" t="s">
-        <v>2000</v>
+        <v>167</v>
       </c>
       <c r="D15" t="s">
-        <v>2033</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>2196</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>2242</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>2288</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s">
-        <v>261</v>
+        <v>167</v>
       </c>
       <c r="O15" t="s">
-        <v>294</v>
+        <v>167</v>
       </c>
       <c r="P15" t="s">
-        <v>322</v>
+        <v>167</v>
       </c>
       <c r="Q15" t="s">
-        <v>342</v>
+        <v>167</v>
       </c>
       <c r="R15" t="s">
-        <v>375</v>
+        <v>167</v>
       </c>
       <c r="S15" t="s">
-        <v>408</v>
+        <v>167</v>
       </c>
       <c r="T15" t="s">
         <v>167</v>
       </c>
       <c r="U15" t="s">
-        <v>448</v>
+        <v>167</v>
       </c>
       <c r="V15" t="s">
-        <v>481</v>
+        <v>167</v>
       </c>
       <c r="W15" t="s">
-        <v>514</v>
+        <v>167</v>
       </c>
       <c r="X15" t="s">
-        <v>547</v>
+        <v>2549</v>
       </c>
       <c r="Y15" t="s">
-        <v>580</v>
+        <v>167</v>
       </c>
       <c r="Z15" t="s">
         <v>613</v>
@@ -10094,73 +11498,73 @@
     </row>
     <row r="16">
       <c r="C16" t="s">
-        <v>2001</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>2034</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>2197</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>2243</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>2289</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="M16" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s">
-        <v>262</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s">
-        <v>295</v>
+        <v>167</v>
       </c>
       <c r="P16" t="s">
-        <v>323</v>
+        <v>167</v>
       </c>
       <c r="Q16" t="s">
-        <v>343</v>
+        <v>167</v>
       </c>
       <c r="R16" t="s">
-        <v>376</v>
+        <v>167</v>
       </c>
       <c r="S16" t="s">
-        <v>409</v>
+        <v>167</v>
       </c>
       <c r="T16" t="s">
         <v>167</v>
       </c>
       <c r="U16" t="s">
-        <v>449</v>
+        <v>167</v>
       </c>
       <c r="V16" t="s">
-        <v>482</v>
+        <v>167</v>
       </c>
       <c r="W16" t="s">
-        <v>515</v>
+        <v>167</v>
       </c>
       <c r="X16" t="s">
-        <v>548</v>
+        <v>2550</v>
       </c>
       <c r="Y16" t="s">
-        <v>581</v>
+        <v>167</v>
       </c>
       <c r="Z16" t="s">
         <v>614</v>
@@ -10333,73 +11737,73 @@
     </row>
     <row r="17">
       <c r="C17" t="s">
-        <v>2002</v>
+        <v>167</v>
       </c>
       <c r="D17" t="s">
-        <v>2035</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>2198</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>2244</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>2290</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
         <v>167</v>
       </c>
       <c r="M17" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="N17" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>296</v>
+        <v>167</v>
       </c>
       <c r="P17" t="s">
-        <v>324</v>
+        <v>167</v>
       </c>
       <c r="Q17" t="s">
-        <v>344</v>
+        <v>167</v>
       </c>
       <c r="R17" t="s">
-        <v>377</v>
+        <v>167</v>
       </c>
       <c r="S17" t="s">
-        <v>410</v>
+        <v>167</v>
       </c>
       <c r="T17" t="s">
         <v>167</v>
       </c>
       <c r="U17" t="s">
-        <v>450</v>
+        <v>167</v>
       </c>
       <c r="V17" t="s">
-        <v>483</v>
+        <v>167</v>
       </c>
       <c r="W17" t="s">
-        <v>516</v>
+        <v>167</v>
       </c>
       <c r="X17" t="s">
-        <v>549</v>
+        <v>2551</v>
       </c>
       <c r="Y17" t="s">
-        <v>582</v>
+        <v>167</v>
       </c>
       <c r="Z17" t="s">
         <v>615</v>
@@ -10572,73 +11976,73 @@
     </row>
     <row r="18">
       <c r="C18" t="s">
-        <v>2003</v>
+        <v>167</v>
       </c>
       <c r="D18" t="s">
-        <v>2036</v>
+        <v>167</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>2199</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>2245</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>2291</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
         <v>167</v>
       </c>
       <c r="M18" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="N18" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>297</v>
+        <v>167</v>
       </c>
       <c r="P18" t="s">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="Q18" t="s">
-        <v>345</v>
+        <v>167</v>
       </c>
       <c r="R18" t="s">
-        <v>378</v>
+        <v>167</v>
       </c>
       <c r="S18" t="s">
-        <v>411</v>
+        <v>167</v>
       </c>
       <c r="T18" t="s">
         <v>167</v>
       </c>
       <c r="U18" t="s">
-        <v>451</v>
+        <v>167</v>
       </c>
       <c r="V18" t="s">
-        <v>484</v>
+        <v>167</v>
       </c>
       <c r="W18" t="s">
-        <v>517</v>
+        <v>167</v>
       </c>
       <c r="X18" t="s">
-        <v>550</v>
+        <v>2551</v>
       </c>
       <c r="Y18" t="s">
-        <v>583</v>
+        <v>167</v>
       </c>
       <c r="Z18" t="s">
         <v>616</v>
@@ -10811,73 +12215,73 @@
     </row>
     <row r="19">
       <c r="C19" t="s">
-        <v>2004</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
-        <v>2037</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>2200</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>2246</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>2292</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s">
         <v>167</v>
       </c>
       <c r="M19" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="N19" t="s">
-        <v>265</v>
+        <v>167</v>
       </c>
       <c r="O19" t="s">
-        <v>298</v>
+        <v>167</v>
       </c>
       <c r="P19" t="s">
-        <v>326</v>
+        <v>167</v>
       </c>
       <c r="Q19" t="s">
-        <v>346</v>
+        <v>167</v>
       </c>
       <c r="R19" t="s">
-        <v>379</v>
+        <v>167</v>
       </c>
       <c r="S19" t="s">
-        <v>412</v>
+        <v>167</v>
       </c>
       <c r="T19" t="s">
         <v>167</v>
       </c>
       <c r="U19" t="s">
-        <v>452</v>
+        <v>167</v>
       </c>
       <c r="V19" t="s">
-        <v>485</v>
+        <v>167</v>
       </c>
       <c r="W19" t="s">
-        <v>518</v>
+        <v>167</v>
       </c>
       <c r="X19" t="s">
-        <v>551</v>
+        <v>2552</v>
       </c>
       <c r="Y19" t="s">
-        <v>584</v>
+        <v>167</v>
       </c>
       <c r="Z19" t="s">
         <v>617</v>
@@ -11050,73 +12454,73 @@
     </row>
     <row r="20">
       <c r="C20" t="s">
-        <v>2005</v>
+        <v>167</v>
       </c>
       <c r="D20" t="s">
-        <v>2038</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
-        <v>84</v>
+        <v>2201</v>
       </c>
       <c r="H20" t="s">
-        <v>117</v>
+        <v>2247</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
+        <v>2293</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s">
         <v>167</v>
       </c>
       <c r="M20" t="s">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="N20" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s">
-        <v>299</v>
+        <v>167</v>
       </c>
       <c r="P20" t="s">
-        <v>327</v>
+        <v>167</v>
       </c>
       <c r="Q20" t="s">
-        <v>347</v>
+        <v>167</v>
       </c>
       <c r="R20" t="s">
-        <v>380</v>
+        <v>167</v>
       </c>
       <c r="S20" t="s">
-        <v>413</v>
+        <v>167</v>
       </c>
       <c r="T20" t="s">
         <v>167</v>
       </c>
       <c r="U20" t="s">
-        <v>453</v>
+        <v>167</v>
       </c>
       <c r="V20" t="s">
-        <v>486</v>
+        <v>167</v>
       </c>
       <c r="W20" t="s">
-        <v>519</v>
+        <v>167</v>
       </c>
       <c r="X20" t="s">
-        <v>552</v>
+        <v>2550</v>
       </c>
       <c r="Y20" t="s">
-        <v>585</v>
+        <v>167</v>
       </c>
       <c r="Z20" t="s">
         <v>618</v>
@@ -11289,73 +12693,73 @@
     </row>
     <row r="21">
       <c r="C21" t="s">
-        <v>2006</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
-        <v>2039</v>
+        <v>167</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>2202</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>2248</v>
       </c>
       <c r="I21" t="s">
-        <v>151</v>
+        <v>2294</v>
       </c>
       <c r="J21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s">
         <v>167</v>
       </c>
       <c r="M21" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="N21" t="s">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="O21" t="s">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="P21" t="s">
-        <v>328</v>
+        <v>167</v>
       </c>
       <c r="Q21" t="s">
-        <v>348</v>
+        <v>167</v>
       </c>
       <c r="R21" t="s">
-        <v>381</v>
+        <v>167</v>
       </c>
       <c r="S21" t="s">
-        <v>414</v>
+        <v>167</v>
       </c>
       <c r="T21" t="s">
         <v>167</v>
       </c>
       <c r="U21" t="s">
-        <v>454</v>
+        <v>167</v>
       </c>
       <c r="V21" t="s">
-        <v>487</v>
+        <v>167</v>
       </c>
       <c r="W21" t="s">
-        <v>520</v>
+        <v>167</v>
       </c>
       <c r="X21" t="s">
-        <v>553</v>
+        <v>2549</v>
       </c>
       <c r="Y21" t="s">
-        <v>586</v>
+        <v>167</v>
       </c>
       <c r="Z21" t="s">
         <v>619</v>
@@ -11528,73 +12932,73 @@
     </row>
     <row r="22">
       <c r="C22" t="s">
-        <v>2007</v>
+        <v>167</v>
       </c>
       <c r="D22" t="s">
-        <v>2040</v>
+        <v>167</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>2203</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>2249</v>
       </c>
       <c r="I22" t="s">
-        <v>152</v>
+        <v>2295</v>
       </c>
       <c r="J22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s">
         <v>167</v>
       </c>
       <c r="M22" t="s">
-        <v>237</v>
+        <v>167</v>
       </c>
       <c r="N22" t="s">
-        <v>268</v>
+        <v>167</v>
       </c>
       <c r="O22" t="s">
-        <v>301</v>
+        <v>167</v>
       </c>
       <c r="P22" t="s">
         <v>167</v>
       </c>
       <c r="Q22" t="s">
-        <v>349</v>
+        <v>167</v>
       </c>
       <c r="R22" t="s">
-        <v>382</v>
+        <v>167</v>
       </c>
       <c r="S22" t="s">
-        <v>415</v>
+        <v>167</v>
       </c>
       <c r="T22" t="s">
         <v>167</v>
       </c>
       <c r="U22" t="s">
-        <v>455</v>
+        <v>167</v>
       </c>
       <c r="V22" t="s">
-        <v>488</v>
+        <v>167</v>
       </c>
       <c r="W22" t="s">
-        <v>521</v>
+        <v>167</v>
       </c>
       <c r="X22" t="s">
-        <v>554</v>
+        <v>2551</v>
       </c>
       <c r="Y22" t="s">
-        <v>587</v>
+        <v>167</v>
       </c>
       <c r="Z22" t="s">
         <v>620</v>
@@ -11767,73 +13171,73 @@
     </row>
     <row r="23">
       <c r="C23" t="s">
-        <v>2008</v>
+        <v>167</v>
       </c>
       <c r="D23" t="s">
-        <v>2041</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>2204</v>
       </c>
       <c r="H23" t="s">
-        <v>120</v>
+        <v>2250</v>
       </c>
       <c r="I23" t="s">
-        <v>153</v>
+        <v>2296</v>
       </c>
       <c r="J23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K23" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s">
         <v>167</v>
       </c>
       <c r="M23" t="s">
-        <v>238</v>
+        <v>167</v>
       </c>
       <c r="N23" t="s">
-        <v>269</v>
+        <v>167</v>
       </c>
       <c r="O23" t="s">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="P23" t="s">
         <v>167</v>
       </c>
       <c r="Q23" t="s">
-        <v>350</v>
+        <v>167</v>
       </c>
       <c r="R23" t="s">
-        <v>383</v>
+        <v>167</v>
       </c>
       <c r="S23" t="s">
-        <v>416</v>
+        <v>167</v>
       </c>
       <c r="T23" t="s">
         <v>167</v>
       </c>
       <c r="U23" t="s">
-        <v>456</v>
+        <v>167</v>
       </c>
       <c r="V23" t="s">
-        <v>489</v>
+        <v>167</v>
       </c>
       <c r="W23" t="s">
-        <v>522</v>
+        <v>167</v>
       </c>
       <c r="X23" t="s">
-        <v>555</v>
+        <v>2552</v>
       </c>
       <c r="Y23" t="s">
-        <v>588</v>
+        <v>167</v>
       </c>
       <c r="Z23" t="s">
         <v>621</v>
@@ -12006,31 +13410,31 @@
     </row>
     <row r="24">
       <c r="C24" t="s">
-        <v>2009</v>
+        <v>167</v>
       </c>
       <c r="D24" t="s">
-        <v>2042</v>
+        <v>167</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>167</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>2205</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>2251</v>
       </c>
       <c r="I24" t="s">
-        <v>154</v>
+        <v>2297</v>
       </c>
       <c r="J24" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="L24" t="s">
         <v>167</v>
@@ -12039,40 +13443,40 @@
         <v>167</v>
       </c>
       <c r="N24" t="s">
-        <v>270</v>
+        <v>167</v>
       </c>
       <c r="O24" t="s">
-        <v>303</v>
+        <v>167</v>
       </c>
       <c r="P24" t="s">
         <v>167</v>
       </c>
       <c r="Q24" t="s">
-        <v>351</v>
+        <v>167</v>
       </c>
       <c r="R24" t="s">
-        <v>384</v>
+        <v>167</v>
       </c>
       <c r="S24" t="s">
-        <v>417</v>
+        <v>167</v>
       </c>
       <c r="T24" t="s">
         <v>167</v>
       </c>
       <c r="U24" t="s">
-        <v>457</v>
+        <v>167</v>
       </c>
       <c r="V24" t="s">
-        <v>490</v>
+        <v>167</v>
       </c>
       <c r="W24" t="s">
-        <v>523</v>
+        <v>167</v>
       </c>
       <c r="X24" t="s">
-        <v>556</v>
+        <v>2549</v>
       </c>
       <c r="Y24" t="s">
-        <v>589</v>
+        <v>167</v>
       </c>
       <c r="Z24" t="s">
         <v>622</v>
@@ -12245,73 +13649,73 @@
     </row>
     <row r="25">
       <c r="C25" t="s">
-        <v>2010</v>
+        <v>167</v>
       </c>
       <c r="D25" t="s">
-        <v>2043</v>
+        <v>167</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>2206</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>2252</v>
       </c>
       <c r="I25" t="s">
-        <v>155</v>
+        <v>2298</v>
       </c>
       <c r="J25" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K25" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s">
         <v>167</v>
       </c>
       <c r="M25" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="N25" t="s">
-        <v>271</v>
+        <v>167</v>
       </c>
       <c r="O25" t="s">
-        <v>304</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s">
         <v>167</v>
       </c>
       <c r="Q25" t="s">
-        <v>352</v>
+        <v>167</v>
       </c>
       <c r="R25" t="s">
-        <v>385</v>
+        <v>167</v>
       </c>
       <c r="S25" t="s">
-        <v>418</v>
+        <v>167</v>
       </c>
       <c r="T25" t="s">
         <v>167</v>
       </c>
       <c r="U25" t="s">
-        <v>458</v>
+        <v>167</v>
       </c>
       <c r="V25" t="s">
-        <v>491</v>
+        <v>167</v>
       </c>
       <c r="W25" t="s">
-        <v>524</v>
+        <v>167</v>
       </c>
       <c r="X25" t="s">
-        <v>557</v>
+        <v>2549</v>
       </c>
       <c r="Y25" t="s">
-        <v>590</v>
+        <v>167</v>
       </c>
       <c r="Z25" t="s">
         <v>623</v>
@@ -12484,73 +13888,73 @@
     </row>
     <row r="26">
       <c r="C26" t="s">
-        <v>2011</v>
+        <v>167</v>
       </c>
       <c r="D26" t="s">
-        <v>2044</v>
+        <v>167</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>2207</v>
       </c>
       <c r="H26" t="s">
-        <v>123</v>
+        <v>2253</v>
       </c>
       <c r="I26" t="s">
-        <v>156</v>
+        <v>2299</v>
       </c>
       <c r="J26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K26" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="L26" t="s">
         <v>167</v>
       </c>
       <c r="M26" t="s">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="N26" t="s">
-        <v>272</v>
+        <v>167</v>
       </c>
       <c r="O26" t="s">
-        <v>305</v>
+        <v>167</v>
       </c>
       <c r="P26" t="s">
         <v>167</v>
       </c>
       <c r="Q26" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="R26" t="s">
-        <v>386</v>
+        <v>167</v>
       </c>
       <c r="S26" t="s">
-        <v>419</v>
+        <v>167</v>
       </c>
       <c r="T26" t="s">
         <v>167</v>
       </c>
       <c r="U26" t="s">
-        <v>459</v>
+        <v>167</v>
       </c>
       <c r="V26" t="s">
-        <v>492</v>
+        <v>167</v>
       </c>
       <c r="W26" t="s">
-        <v>525</v>
+        <v>167</v>
       </c>
       <c r="X26" t="s">
-        <v>558</v>
+        <v>2548</v>
       </c>
       <c r="Y26" t="s">
-        <v>591</v>
+        <v>167</v>
       </c>
       <c r="Z26" t="s">
         <v>624</v>
@@ -12723,73 +14127,73 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>2012</v>
+        <v>167</v>
       </c>
       <c r="D27" t="s">
-        <v>2045</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>2208</v>
       </c>
       <c r="H27" t="s">
-        <v>124</v>
+        <v>2254</v>
       </c>
       <c r="I27" t="s">
-        <v>157</v>
+        <v>2300</v>
       </c>
       <c r="J27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K27" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s">
         <v>167</v>
       </c>
       <c r="M27" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="N27" t="s">
-        <v>273</v>
+        <v>167</v>
       </c>
       <c r="O27" t="s">
-        <v>306</v>
+        <v>167</v>
       </c>
       <c r="P27" t="s">
         <v>167</v>
       </c>
       <c r="Q27" t="s">
-        <v>354</v>
+        <v>167</v>
       </c>
       <c r="R27" t="s">
-        <v>387</v>
+        <v>167</v>
       </c>
       <c r="S27" t="s">
-        <v>420</v>
+        <v>167</v>
       </c>
       <c r="T27" t="s">
         <v>167</v>
       </c>
       <c r="U27" t="s">
-        <v>460</v>
+        <v>167</v>
       </c>
       <c r="V27" t="s">
-        <v>493</v>
+        <v>167</v>
       </c>
       <c r="W27" t="s">
-        <v>526</v>
+        <v>167</v>
       </c>
       <c r="X27" t="s">
-        <v>559</v>
+        <v>2547</v>
       </c>
       <c r="Y27" t="s">
-        <v>592</v>
+        <v>167</v>
       </c>
       <c r="Z27" t="s">
         <v>625</v>
@@ -12962,73 +14366,73 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>2013</v>
+        <v>167</v>
       </c>
       <c r="D28" t="s">
-        <v>2046</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="G28" t="s">
-        <v>92</v>
+        <v>2209</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>2255</v>
       </c>
       <c r="I28" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="J28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="L28" t="s">
         <v>167</v>
       </c>
       <c r="M28" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="N28" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="O28" t="s">
-        <v>307</v>
+        <v>167</v>
       </c>
       <c r="P28" t="s">
         <v>167</v>
       </c>
       <c r="Q28" t="s">
-        <v>355</v>
+        <v>167</v>
       </c>
       <c r="R28" t="s">
-        <v>388</v>
+        <v>167</v>
       </c>
       <c r="S28" t="s">
-        <v>421</v>
+        <v>167</v>
       </c>
       <c r="T28" t="s">
         <v>167</v>
       </c>
       <c r="U28" t="s">
-        <v>461</v>
+        <v>167</v>
       </c>
       <c r="V28" t="s">
-        <v>494</v>
+        <v>167</v>
       </c>
       <c r="W28" t="s">
-        <v>527</v>
+        <v>167</v>
       </c>
       <c r="X28" t="s">
-        <v>560</v>
+        <v>2544</v>
       </c>
       <c r="Y28" t="s">
-        <v>593</v>
+        <v>167</v>
       </c>
       <c r="Z28" t="s">
         <v>626</v>
@@ -13201,73 +14605,73 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>2014</v>
+        <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>2047</v>
+        <v>167</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="G29" t="s">
-        <v>93</v>
+        <v>2210</v>
       </c>
       <c r="H29" t="s">
-        <v>126</v>
+        <v>2256</v>
       </c>
       <c r="I29" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="J29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K29" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s">
         <v>167</v>
       </c>
       <c r="M29" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="N29" t="s">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="O29" t="s">
-        <v>308</v>
+        <v>167</v>
       </c>
       <c r="P29" t="s">
         <v>167</v>
       </c>
       <c r="Q29" t="s">
-        <v>356</v>
+        <v>167</v>
       </c>
       <c r="R29" t="s">
-        <v>389</v>
+        <v>167</v>
       </c>
       <c r="S29" t="s">
-        <v>422</v>
+        <v>167</v>
       </c>
       <c r="T29" t="s">
         <v>167</v>
       </c>
       <c r="U29" t="s">
-        <v>462</v>
+        <v>167</v>
       </c>
       <c r="V29" t="s">
-        <v>495</v>
+        <v>167</v>
       </c>
       <c r="W29" t="s">
-        <v>528</v>
+        <v>167</v>
       </c>
       <c r="X29" t="s">
-        <v>561</v>
+        <v>2553</v>
       </c>
       <c r="Y29" t="s">
-        <v>594</v>
+        <v>167</v>
       </c>
       <c r="Z29" t="s">
         <v>627</v>
@@ -13440,73 +14844,73 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>2015</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>2048</v>
+        <v>167</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="G30" t="s">
-        <v>94</v>
+        <v>2211</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>2257</v>
       </c>
       <c r="I30" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="J30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K30" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s">
         <v>167</v>
       </c>
       <c r="M30" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>167</v>
       </c>
       <c r="O30" t="s">
-        <v>309</v>
+        <v>167</v>
       </c>
       <c r="P30" t="s">
         <v>167</v>
       </c>
       <c r="Q30" t="s">
-        <v>357</v>
+        <v>167</v>
       </c>
       <c r="R30" t="s">
-        <v>390</v>
+        <v>167</v>
       </c>
       <c r="S30" t="s">
-        <v>423</v>
+        <v>167</v>
       </c>
       <c r="T30" t="s">
         <v>167</v>
       </c>
       <c r="U30" t="s">
-        <v>463</v>
+        <v>167</v>
       </c>
       <c r="V30" t="s">
-        <v>496</v>
+        <v>167</v>
       </c>
       <c r="W30" t="s">
-        <v>529</v>
+        <v>167</v>
       </c>
       <c r="X30" t="s">
-        <v>562</v>
+        <v>2554</v>
       </c>
       <c r="Y30" t="s">
-        <v>595</v>
+        <v>167</v>
       </c>
       <c r="Z30" t="s">
         <v>628</v>
@@ -13679,73 +15083,73 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>2016</v>
+        <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>2049</v>
+        <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
+        <v>2212</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>2258</v>
       </c>
       <c r="I31" t="s">
-        <v>161</v>
+        <v>2301</v>
       </c>
       <c r="J31" t="s">
         <v>167</v>
       </c>
       <c r="K31" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s">
         <v>167</v>
       </c>
       <c r="M31" t="s">
-        <v>245</v>
+        <v>2365</v>
       </c>
       <c r="N31" t="s">
-        <v>277</v>
+        <v>167</v>
       </c>
       <c r="O31" t="s">
-        <v>310</v>
+        <v>2398</v>
       </c>
       <c r="P31" t="s">
         <v>167</v>
       </c>
       <c r="Q31" t="s">
-        <v>358</v>
+        <v>167</v>
       </c>
       <c r="R31" t="s">
-        <v>391</v>
+        <v>2365</v>
       </c>
       <c r="S31" t="s">
-        <v>424</v>
+        <v>2462</v>
       </c>
       <c r="T31" t="s">
         <v>167</v>
       </c>
       <c r="U31" t="s">
-        <v>464</v>
+        <v>2494</v>
       </c>
       <c r="V31" t="s">
-        <v>497</v>
+        <v>167</v>
       </c>
       <c r="W31" t="s">
-        <v>530</v>
+        <v>167</v>
       </c>
       <c r="X31" t="s">
-        <v>563</v>
+        <v>2555</v>
       </c>
       <c r="Y31" t="s">
-        <v>596</v>
+        <v>167</v>
       </c>
       <c r="Z31" t="s">
         <v>629</v>
@@ -13918,73 +15322,73 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>2017</v>
+        <v>2119</v>
       </c>
       <c r="D32" t="s">
-        <v>2050</v>
+        <v>2135</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>2151</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>2167</v>
       </c>
       <c r="G32" t="s">
-        <v>96</v>
+        <v>2213</v>
       </c>
       <c r="H32" t="s">
-        <v>129</v>
+        <v>2259</v>
       </c>
       <c r="I32" t="s">
-        <v>162</v>
+        <v>2302</v>
       </c>
       <c r="J32" t="s">
-        <v>167</v>
+        <v>2317</v>
       </c>
       <c r="K32" t="s">
-        <v>198</v>
+        <v>2333</v>
       </c>
       <c r="L32" t="s">
-        <v>167</v>
+        <v>2349</v>
       </c>
       <c r="M32" t="s">
-        <v>246</v>
+        <v>2366</v>
       </c>
       <c r="N32" t="s">
-        <v>278</v>
+        <v>2382</v>
       </c>
       <c r="O32" t="s">
-        <v>311</v>
+        <v>2399</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>2414</v>
       </c>
       <c r="Q32" t="s">
-        <v>359</v>
+        <v>2430</v>
       </c>
       <c r="R32" t="s">
-        <v>392</v>
+        <v>2446</v>
       </c>
       <c r="S32" t="s">
-        <v>425</v>
+        <v>2463</v>
       </c>
       <c r="T32" t="s">
-        <v>167</v>
+        <v>2479</v>
       </c>
       <c r="U32" t="s">
-        <v>465</v>
+        <v>2495</v>
       </c>
       <c r="V32" t="s">
-        <v>498</v>
+        <v>2511</v>
       </c>
       <c r="W32" t="s">
-        <v>531</v>
+        <v>2527</v>
       </c>
       <c r="X32" t="s">
-        <v>564</v>
+        <v>2556</v>
       </c>
       <c r="Y32" t="s">
-        <v>597</v>
+        <v>2571</v>
       </c>
       <c r="Z32" t="s">
         <v>630</v>
@@ -14157,73 +15561,73 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>2018</v>
+        <v>2120</v>
       </c>
       <c r="D33" t="s">
-        <v>2051</v>
+        <v>2136</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>2152</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>2168</v>
       </c>
       <c r="G33" t="s">
-        <v>97</v>
+        <v>2214</v>
       </c>
       <c r="H33" t="s">
-        <v>130</v>
+        <v>2260</v>
       </c>
       <c r="I33" t="s">
-        <v>163</v>
+        <v>2303</v>
       </c>
       <c r="J33" t="s">
-        <v>167</v>
+        <v>2318</v>
       </c>
       <c r="K33" t="s">
-        <v>199</v>
+        <v>2334</v>
       </c>
       <c r="L33" t="s">
-        <v>215</v>
+        <v>2350</v>
       </c>
       <c r="M33" t="s">
-        <v>247</v>
+        <v>2367</v>
       </c>
       <c r="N33" t="s">
-        <v>279</v>
+        <v>2383</v>
       </c>
       <c r="O33" t="s">
-        <v>312</v>
+        <v>2400</v>
       </c>
       <c r="P33" t="s">
-        <v>167</v>
+        <v>2415</v>
       </c>
       <c r="Q33" t="s">
-        <v>360</v>
+        <v>2431</v>
       </c>
       <c r="R33" t="s">
-        <v>393</v>
+        <v>2447</v>
       </c>
       <c r="S33" t="s">
-        <v>426</v>
+        <v>2464</v>
       </c>
       <c r="T33" t="s">
-        <v>167</v>
+        <v>2480</v>
       </c>
       <c r="U33" t="s">
-        <v>466</v>
+        <v>2496</v>
       </c>
       <c r="V33" t="s">
-        <v>499</v>
+        <v>2512</v>
       </c>
       <c r="W33" t="s">
-        <v>532</v>
+        <v>2528</v>
       </c>
       <c r="X33" t="s">
-        <v>565</v>
+        <v>2557</v>
       </c>
       <c r="Y33" t="s">
-        <v>598</v>
+        <v>2572</v>
       </c>
       <c r="Z33" t="s">
         <v>631</v>
@@ -14396,73 +15800,73 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>2019</v>
+        <v>2121</v>
       </c>
       <c r="D34" t="s">
-        <v>2052</v>
+        <v>2137</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>2153</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>2169</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>2215</v>
       </c>
       <c r="H34" t="s">
-        <v>131</v>
+        <v>2261</v>
       </c>
       <c r="I34" t="s">
-        <v>164</v>
+        <v>2304</v>
       </c>
       <c r="J34" t="s">
-        <v>167</v>
+        <v>2319</v>
       </c>
       <c r="K34" t="s">
-        <v>200</v>
+        <v>2335</v>
       </c>
       <c r="L34" t="s">
-        <v>216</v>
+        <v>2351</v>
       </c>
       <c r="M34" t="s">
-        <v>248</v>
+        <v>2368</v>
       </c>
       <c r="N34" t="s">
-        <v>280</v>
+        <v>2384</v>
       </c>
       <c r="O34" t="s">
-        <v>313</v>
+        <v>2319</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>2416</v>
       </c>
       <c r="Q34" t="s">
-        <v>361</v>
+        <v>2432</v>
       </c>
       <c r="R34" t="s">
-        <v>394</v>
+        <v>2448</v>
       </c>
       <c r="S34" t="s">
-        <v>427</v>
+        <v>2465</v>
       </c>
       <c r="T34" t="s">
-        <v>167</v>
+        <v>2481</v>
       </c>
       <c r="U34" t="s">
-        <v>467</v>
+        <v>2497</v>
       </c>
       <c r="V34" t="s">
-        <v>500</v>
+        <v>2513</v>
       </c>
       <c r="W34" t="s">
-        <v>533</v>
+        <v>2529</v>
       </c>
       <c r="X34" t="s">
-        <v>566</v>
+        <v>2558</v>
       </c>
       <c r="Y34" t="s">
-        <v>599</v>
+        <v>2573</v>
       </c>
       <c r="Z34" t="s">
         <v>632</v>
@@ -14631,6 +16035,929 @@
       </c>
       <c r="CC34" t="s">
         <v>2118</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="s">
+        <v>2122</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2216</v>
+      </c>
+      <c r="H35" t="s">
+        <v>2262</v>
+      </c>
+      <c r="I35" t="s">
+        <v>2305</v>
+      </c>
+      <c r="J35" t="s">
+        <v>2320</v>
+      </c>
+      <c r="K35" t="s">
+        <v>2336</v>
+      </c>
+      <c r="L35" t="s">
+        <v>2352</v>
+      </c>
+      <c r="M35" t="s">
+        <v>2369</v>
+      </c>
+      <c r="N35" t="s">
+        <v>2385</v>
+      </c>
+      <c r="O35" t="s">
+        <v>2401</v>
+      </c>
+      <c r="P35" t="s">
+        <v>2417</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>2433</v>
+      </c>
+      <c r="R35" t="s">
+        <v>2449</v>
+      </c>
+      <c r="S35" t="s">
+        <v>2466</v>
+      </c>
+      <c r="T35" t="s">
+        <v>2482</v>
+      </c>
+      <c r="U35" t="s">
+        <v>2498</v>
+      </c>
+      <c r="V35" t="s">
+        <v>2514</v>
+      </c>
+      <c r="W35" t="s">
+        <v>2530</v>
+      </c>
+      <c r="X35" t="s">
+        <v>2559</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2155</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2217</v>
+      </c>
+      <c r="H36" t="s">
+        <v>2263</v>
+      </c>
+      <c r="I36" t="s">
+        <v>2280</v>
+      </c>
+      <c r="J36" t="s">
+        <v>2321</v>
+      </c>
+      <c r="K36" t="s">
+        <v>2337</v>
+      </c>
+      <c r="L36" t="s">
+        <v>2353</v>
+      </c>
+      <c r="M36" t="s">
+        <v>2370</v>
+      </c>
+      <c r="N36" t="s">
+        <v>2386</v>
+      </c>
+      <c r="O36" t="s">
+        <v>2402</v>
+      </c>
+      <c r="P36" t="s">
+        <v>2418</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>2434</v>
+      </c>
+      <c r="R36" t="s">
+        <v>2450</v>
+      </c>
+      <c r="S36" t="s">
+        <v>2467</v>
+      </c>
+      <c r="T36" t="s">
+        <v>2483</v>
+      </c>
+      <c r="U36" t="s">
+        <v>2499</v>
+      </c>
+      <c r="V36" t="s">
+        <v>2515</v>
+      </c>
+      <c r="W36" t="s">
+        <v>2531</v>
+      </c>
+      <c r="X36" t="s">
+        <v>2560</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="s">
+        <v>2124</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2218</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2264</v>
+      </c>
+      <c r="I37" t="s">
+        <v>2306</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2322</v>
+      </c>
+      <c r="K37" t="s">
+        <v>2338</v>
+      </c>
+      <c r="L37" t="s">
+        <v>2354</v>
+      </c>
+      <c r="M37" t="s">
+        <v>2371</v>
+      </c>
+      <c r="N37" t="s">
+        <v>2387</v>
+      </c>
+      <c r="O37" t="s">
+        <v>2403</v>
+      </c>
+      <c r="P37" t="s">
+        <v>2419</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>2435</v>
+      </c>
+      <c r="R37" t="s">
+        <v>2451</v>
+      </c>
+      <c r="S37" t="s">
+        <v>2468</v>
+      </c>
+      <c r="T37" t="s">
+        <v>2484</v>
+      </c>
+      <c r="U37" t="s">
+        <v>2500</v>
+      </c>
+      <c r="V37" t="s">
+        <v>2516</v>
+      </c>
+      <c r="W37" t="s">
+        <v>2532</v>
+      </c>
+      <c r="X37" t="s">
+        <v>2561</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="s">
+        <v>2125</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2219</v>
+      </c>
+      <c r="H38" t="s">
+        <v>2265</v>
+      </c>
+      <c r="I38" t="s">
+        <v>2307</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2323</v>
+      </c>
+      <c r="K38" t="s">
+        <v>2339</v>
+      </c>
+      <c r="L38" t="s">
+        <v>2355</v>
+      </c>
+      <c r="M38" t="s">
+        <v>2372</v>
+      </c>
+      <c r="N38" t="s">
+        <v>2388</v>
+      </c>
+      <c r="O38" t="s">
+        <v>2404</v>
+      </c>
+      <c r="P38" t="s">
+        <v>2420</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>2436</v>
+      </c>
+      <c r="R38" t="s">
+        <v>2452</v>
+      </c>
+      <c r="S38" t="s">
+        <v>2469</v>
+      </c>
+      <c r="T38" t="s">
+        <v>2485</v>
+      </c>
+      <c r="U38" t="s">
+        <v>2501</v>
+      </c>
+      <c r="V38" t="s">
+        <v>2517</v>
+      </c>
+      <c r="W38" t="s">
+        <v>2533</v>
+      </c>
+      <c r="X38" t="s">
+        <v>2562</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2220</v>
+      </c>
+      <c r="H39" t="s">
+        <v>2266</v>
+      </c>
+      <c r="I39" t="s">
+        <v>2308</v>
+      </c>
+      <c r="J39" t="s">
+        <v>2324</v>
+      </c>
+      <c r="K39" t="s">
+        <v>2340</v>
+      </c>
+      <c r="L39" t="s">
+        <v>2356</v>
+      </c>
+      <c r="M39" t="s">
+        <v>2373</v>
+      </c>
+      <c r="N39" t="s">
+        <v>2389</v>
+      </c>
+      <c r="O39" t="s">
+        <v>2405</v>
+      </c>
+      <c r="P39" t="s">
+        <v>2421</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>2437</v>
+      </c>
+      <c r="R39" t="s">
+        <v>2453</v>
+      </c>
+      <c r="S39" t="s">
+        <v>2470</v>
+      </c>
+      <c r="T39" t="s">
+        <v>2486</v>
+      </c>
+      <c r="U39" t="s">
+        <v>2502</v>
+      </c>
+      <c r="V39" t="s">
+        <v>2518</v>
+      </c>
+      <c r="W39" t="s">
+        <v>2534</v>
+      </c>
+      <c r="X39" t="s">
+        <v>2563</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2143</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F40" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2221</v>
+      </c>
+      <c r="H40" t="s">
+        <v>2267</v>
+      </c>
+      <c r="I40" t="s">
+        <v>2309</v>
+      </c>
+      <c r="J40" t="s">
+        <v>2325</v>
+      </c>
+      <c r="K40" t="s">
+        <v>2341</v>
+      </c>
+      <c r="L40" t="s">
+        <v>2357</v>
+      </c>
+      <c r="M40" t="s">
+        <v>2374</v>
+      </c>
+      <c r="N40" t="s">
+        <v>2390</v>
+      </c>
+      <c r="O40" t="s">
+        <v>2406</v>
+      </c>
+      <c r="P40" t="s">
+        <v>2422</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>2438</v>
+      </c>
+      <c r="R40" t="s">
+        <v>2454</v>
+      </c>
+      <c r="S40" t="s">
+        <v>2471</v>
+      </c>
+      <c r="T40" t="s">
+        <v>2487</v>
+      </c>
+      <c r="U40" t="s">
+        <v>2503</v>
+      </c>
+      <c r="V40" t="s">
+        <v>2519</v>
+      </c>
+      <c r="W40" t="s">
+        <v>2535</v>
+      </c>
+      <c r="X40" t="s">
+        <v>2564</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2144</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2176</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2222</v>
+      </c>
+      <c r="H41" t="s">
+        <v>2268</v>
+      </c>
+      <c r="I41" t="s">
+        <v>2310</v>
+      </c>
+      <c r="J41" t="s">
+        <v>2326</v>
+      </c>
+      <c r="K41" t="s">
+        <v>2342</v>
+      </c>
+      <c r="L41" t="s">
+        <v>2358</v>
+      </c>
+      <c r="M41" t="s">
+        <v>2375</v>
+      </c>
+      <c r="N41" t="s">
+        <v>2391</v>
+      </c>
+      <c r="O41" t="s">
+        <v>2407</v>
+      </c>
+      <c r="P41" t="s">
+        <v>2423</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>2439</v>
+      </c>
+      <c r="R41" t="s">
+        <v>2455</v>
+      </c>
+      <c r="S41" t="s">
+        <v>2472</v>
+      </c>
+      <c r="T41" t="s">
+        <v>2488</v>
+      </c>
+      <c r="U41" t="s">
+        <v>2504</v>
+      </c>
+      <c r="V41" t="s">
+        <v>2520</v>
+      </c>
+      <c r="W41" t="s">
+        <v>2536</v>
+      </c>
+      <c r="X41" t="s">
+        <v>2565</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2145</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F42" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2223</v>
+      </c>
+      <c r="H42" t="s">
+        <v>2269</v>
+      </c>
+      <c r="I42" t="s">
+        <v>2311</v>
+      </c>
+      <c r="J42" t="s">
+        <v>2327</v>
+      </c>
+      <c r="K42" t="s">
+        <v>2343</v>
+      </c>
+      <c r="L42" t="s">
+        <v>2359</v>
+      </c>
+      <c r="M42" t="s">
+        <v>2376</v>
+      </c>
+      <c r="N42" t="s">
+        <v>2392</v>
+      </c>
+      <c r="O42" t="s">
+        <v>2408</v>
+      </c>
+      <c r="P42" t="s">
+        <v>2424</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>2440</v>
+      </c>
+      <c r="R42" t="s">
+        <v>2456</v>
+      </c>
+      <c r="S42" t="s">
+        <v>2473</v>
+      </c>
+      <c r="T42" t="s">
+        <v>2489</v>
+      </c>
+      <c r="U42" t="s">
+        <v>2505</v>
+      </c>
+      <c r="V42" t="s">
+        <v>2521</v>
+      </c>
+      <c r="W42" t="s">
+        <v>2537</v>
+      </c>
+      <c r="X42" t="s">
+        <v>2566</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2146</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2224</v>
+      </c>
+      <c r="H43" t="s">
+        <v>2270</v>
+      </c>
+      <c r="I43" t="s">
+        <v>2312</v>
+      </c>
+      <c r="J43" t="s">
+        <v>2328</v>
+      </c>
+      <c r="K43" t="s">
+        <v>2344</v>
+      </c>
+      <c r="L43" t="s">
+        <v>2360</v>
+      </c>
+      <c r="M43" t="s">
+        <v>2377</v>
+      </c>
+      <c r="N43" t="s">
+        <v>2393</v>
+      </c>
+      <c r="O43" t="s">
+        <v>2409</v>
+      </c>
+      <c r="P43" t="s">
+        <v>2425</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>2441</v>
+      </c>
+      <c r="R43" t="s">
+        <v>2457</v>
+      </c>
+      <c r="S43" t="s">
+        <v>2474</v>
+      </c>
+      <c r="T43" t="s">
+        <v>2490</v>
+      </c>
+      <c r="U43" t="s">
+        <v>2506</v>
+      </c>
+      <c r="V43" t="s">
+        <v>2522</v>
+      </c>
+      <c r="W43" t="s">
+        <v>2538</v>
+      </c>
+      <c r="X43" t="s">
+        <v>2567</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2225</v>
+      </c>
+      <c r="H44" t="s">
+        <v>2271</v>
+      </c>
+      <c r="I44" t="s">
+        <v>2313</v>
+      </c>
+      <c r="J44" t="s">
+        <v>2329</v>
+      </c>
+      <c r="K44" t="s">
+        <v>2345</v>
+      </c>
+      <c r="L44" t="s">
+        <v>2361</v>
+      </c>
+      <c r="M44" t="s">
+        <v>2378</v>
+      </c>
+      <c r="N44" t="s">
+        <v>2394</v>
+      </c>
+      <c r="O44" t="s">
+        <v>2410</v>
+      </c>
+      <c r="P44" t="s">
+        <v>2426</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>2442</v>
+      </c>
+      <c r="R44" t="s">
+        <v>2458</v>
+      </c>
+      <c r="S44" t="s">
+        <v>2475</v>
+      </c>
+      <c r="T44" t="s">
+        <v>2491</v>
+      </c>
+      <c r="U44" t="s">
+        <v>2507</v>
+      </c>
+      <c r="V44" t="s">
+        <v>2523</v>
+      </c>
+      <c r="W44" t="s">
+        <v>2539</v>
+      </c>
+      <c r="X44" t="s">
+        <v>2568</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2148</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2226</v>
+      </c>
+      <c r="H45" t="s">
+        <v>2272</v>
+      </c>
+      <c r="I45" t="s">
+        <v>2314</v>
+      </c>
+      <c r="J45" t="s">
+        <v>2330</v>
+      </c>
+      <c r="K45" t="s">
+        <v>2346</v>
+      </c>
+      <c r="L45" t="s">
+        <v>2362</v>
+      </c>
+      <c r="M45" t="s">
+        <v>2379</v>
+      </c>
+      <c r="N45" t="s">
+        <v>2395</v>
+      </c>
+      <c r="O45" t="s">
+        <v>2411</v>
+      </c>
+      <c r="P45" t="s">
+        <v>2427</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>2443</v>
+      </c>
+      <c r="R45" t="s">
+        <v>2459</v>
+      </c>
+      <c r="S45" t="s">
+        <v>2476</v>
+      </c>
+      <c r="T45" t="s">
+        <v>2362</v>
+      </c>
+      <c r="U45" t="s">
+        <v>2508</v>
+      </c>
+      <c r="V45" t="s">
+        <v>2524</v>
+      </c>
+      <c r="W45" t="s">
+        <v>2540</v>
+      </c>
+      <c r="X45" t="s">
+        <v>2569</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2227</v>
+      </c>
+      <c r="H46" t="s">
+        <v>2273</v>
+      </c>
+      <c r="I46" t="s">
+        <v>2315</v>
+      </c>
+      <c r="J46" t="s">
+        <v>2331</v>
+      </c>
+      <c r="K46" t="s">
+        <v>2347</v>
+      </c>
+      <c r="L46" t="s">
+        <v>2363</v>
+      </c>
+      <c r="M46" t="s">
+        <v>2380</v>
+      </c>
+      <c r="N46" t="s">
+        <v>2396</v>
+      </c>
+      <c r="O46" t="s">
+        <v>2412</v>
+      </c>
+      <c r="P46" t="s">
+        <v>2428</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>2444</v>
+      </c>
+      <c r="R46" t="s">
+        <v>2460</v>
+      </c>
+      <c r="S46" t="s">
+        <v>2477</v>
+      </c>
+      <c r="T46" t="s">
+        <v>2492</v>
+      </c>
+      <c r="U46" t="s">
+        <v>2509</v>
+      </c>
+      <c r="V46" t="s">
+        <v>2525</v>
+      </c>
+      <c r="W46" t="s">
+        <v>2541</v>
+      </c>
+      <c r="X46" t="s">
+        <v>2570</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2166</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2228</v>
+      </c>
+      <c r="H47" t="s">
+        <v>2274</v>
+      </c>
+      <c r="I47" t="s">
+        <v>2316</v>
+      </c>
+      <c r="J47" t="s">
+        <v>2332</v>
+      </c>
+      <c r="K47" t="s">
+        <v>2348</v>
+      </c>
+      <c r="L47" t="s">
+        <v>2364</v>
+      </c>
+      <c r="M47" t="s">
+        <v>2381</v>
+      </c>
+      <c r="N47" t="s">
+        <v>2397</v>
+      </c>
+      <c r="O47" t="s">
+        <v>2413</v>
+      </c>
+      <c r="P47" t="s">
+        <v>2429</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>2445</v>
+      </c>
+      <c r="R47" t="s">
+        <v>2461</v>
+      </c>
+      <c r="S47" t="s">
+        <v>2478</v>
+      </c>
+      <c r="T47" t="s">
+        <v>2493</v>
+      </c>
+      <c r="U47" t="s">
+        <v>2510</v>
+      </c>
+      <c r="V47" t="s">
+        <v>2526</v>
+      </c>
+      <c r="W47" t="s">
+        <v>2542</v>
+      </c>
+      <c r="X47" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>2586</v>
       </c>
     </row>
   </sheetData>
